--- a/League_stats.xlsx
+++ b/League_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzivatel\Desktop\liga COL\Summer Split - INGAME\Into OBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC7CD51-BF2A-4950-9EA6-FCFA289BB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88845E9B-1875-4D84-B359-771180B7CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{125B5C97-2394-44A7-96F9-1FC32071357B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{125B5C97-2394-44A7-96F9-1FC32071357B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pick-Ban" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dragons!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KDA!$A$2:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KDA!$A$2:$J$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pick-Ban'!$B$2:$H$172</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -1533,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F552707C-540A-43EE-80AE-2A5AE125ED84}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1546,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="B1">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>C3+D3</f>
+        <f t="shared" ref="E3:E34" si="0">C3+D3</f>
         <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f>C3/E3</f>
+        <f t="shared" ref="G3:G34" si="1">C3/E3</f>
         <v>0.5</v>
       </c>
       <c r="H3" s="3">
-        <f>F3/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" ref="H3:H34" si="2">F3/$B$1</f>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,19 +1611,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F4">
         <v>14</v>
       </c>
       <c r="G4" s="3">
-        <f>C4/E4</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H4" s="3">
-        <f>F4/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="2"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1635,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="3">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>F5/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,19 +1663,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <f>C6/E6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>F6/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1687,18 +1689,18 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>C7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="H7" s="3">
-        <f>F7/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1713,18 +1715,18 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>C8/E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>F8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1739,19 +1741,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="3">
-        <f>C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H9" s="3">
-        <f>F9/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1765,18 +1767,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>C10/E10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f>F10/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1788,22 +1790,22 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <f>C11+D11</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <f>C11/E11</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H11" s="3">
-        <f>F11/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1817,19 +1819,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <f>C12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="H12" s="3">
-        <f>F12/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1843,19 +1845,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <f>C13/E13</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="H13" s="3">
-        <f>F13/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,19 +1871,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <f>C14/E14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <f>F14/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1889,25 +1891,25 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <f>C15+D15</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" s="3">
-        <f>C15/E15</f>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="H15" s="3">
-        <f>F15/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1921,19 +1923,19 @@
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3">
-        <f>C16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="H16" s="3">
-        <f>F16/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="2"/>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1941,18 +1943,18 @@
         <v>36</v>
       </c>
       <c r="E17" s="2">
-        <f>C17+D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="e">
-        <f>C17/E17</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="3">
-        <f>F17/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1967,19 +1969,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f>C18+D18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <f>C18/E18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f>F18/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1993,19 +1995,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f>C19+D19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19" s="3">
-        <f>C19/E19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f>F19/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -2013,18 +2015,18 @@
         <v>38</v>
       </c>
       <c r="E20" s="2">
-        <f>C20+D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="e">
-        <f>C20/E20</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="3">
-        <f>F20/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,22 +2038,22 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
-        <f>C21+D21</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>14</v>
       </c>
       <c r="G21" s="3">
-        <f>C21/E21</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="H21" s="3">
-        <f>F21/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="2"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2059,18 +2061,18 @@
         <v>39</v>
       </c>
       <c r="E22" s="2">
-        <f>C22+D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="e">
-        <f>C22/E22</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="3">
-        <f>F22/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2085,19 +2087,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <f>C23+D23</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" s="3">
-        <f>C23/E23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f>F23/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -2111,19 +2113,19 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <f>C24+D24</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" s="3">
-        <f>C24/E24</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="H24" s="3">
-        <f>F24/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2137,19 +2139,19 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <f>C25+D25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" s="3">
-        <f>C25/E25</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="H25" s="3">
-        <f>F25/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2163,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <f>C26+D26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <f>C26/E26</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="H26" s="3">
-        <f>F26/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -2189,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f>C27+D27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F27">
         <v>16</v>
       </c>
       <c r="G27" s="3">
-        <f>C27/E27</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <f>F27/$B$1</f>
-        <v>0.19277108433734941</v>
+        <f t="shared" si="2"/>
+        <v>0.18823529411764706</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -2209,19 +2211,19 @@
         <v>45</v>
       </c>
       <c r="E28" s="2">
-        <f>C28+D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="e">
-        <f>C28/E28</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="3">
-        <f>F28/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -2235,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <f>C29+D29</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F29">
         <v>12</v>
       </c>
       <c r="G29" s="3">
-        <f>C29/E29</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H29" s="3">
-        <f>F29/$B$1</f>
-        <v>0.14457831325301204</v>
+        <f t="shared" si="2"/>
+        <v>0.14117647058823529</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2261,19 +2263,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="2">
-        <f>C30+D30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" s="3">
-        <f>C30/E30</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H30" s="3">
-        <f>F30/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -2287,18 +2289,18 @@
         <v>2</v>
       </c>
       <c r="E31" s="2">
-        <f>C31+D31</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f>C31/E31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f>F31/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2313,19 +2315,19 @@
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <f>C32+D32</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" s="3">
-        <f>C32/E32</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="H32" s="3">
-        <f>F32/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -2333,18 +2335,18 @@
         <v>49</v>
       </c>
       <c r="E33" s="2">
-        <f>C33+D33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="3" t="e">
-        <f>C33/E33</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="3">
-        <f>F33/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2356,22 +2358,22 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
-        <f>C34+D34</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <f>C34/E34</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H34" s="3">
-        <f>F34/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -2379,18 +2381,18 @@
         <v>51</v>
       </c>
       <c r="E35" s="2">
-        <f>C35+D35</f>
+        <f t="shared" ref="E35:E66" si="3">C35+D35</f>
         <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="3" t="e">
-        <f>C35/E35</f>
+        <f t="shared" ref="G35:G66" si="4">C35/E35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="3">
-        <f>F35/$B$1</f>
+        <f t="shared" ref="H35:H66" si="5">F35/$B$1</f>
         <v>0</v>
       </c>
     </row>
@@ -2405,19 +2407,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="2">
-        <f>C36+D36</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36" s="3">
-        <f>C36/E36</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="H36" s="3">
-        <f>F36/$B$1</f>
-        <v>0.12048192771084337</v>
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -2425,18 +2427,18 @@
         <v>53</v>
       </c>
       <c r="E37" s="2">
-        <f>C37+D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="3" t="e">
-        <f>C37/E37</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="3">
-        <f>F37/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2451,19 +2453,19 @@
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <f>C38+D38</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" s="3">
-        <f>C38/E38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <f>F38/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -2471,18 +2473,18 @@
         <v>55</v>
       </c>
       <c r="E39" s="2">
-        <f>C39+D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="3" t="e">
-        <f>C39/E39</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="3">
-        <f>F39/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2491,19 +2493,19 @@
         <v>56</v>
       </c>
       <c r="E40" s="2">
-        <f>C40+D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" s="3" t="e">
-        <f>C40/E40</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="3">
-        <f>F40/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -2517,19 +2519,19 @@
         <v>2</v>
       </c>
       <c r="E41" s="2">
-        <f>C41+D41</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" s="3">
-        <f>C41/E41</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H41" s="3">
-        <f>F41/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -2537,18 +2539,18 @@
         <v>58</v>
       </c>
       <c r="E42" s="2">
-        <f>C42+D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="e">
-        <f>C42/E42</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="3">
-        <f>F42/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2557,18 +2559,18 @@
         <v>59</v>
       </c>
       <c r="E43" s="2">
-        <f>C43+D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="3" t="e">
-        <f>C43/E43</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="3">
-        <f>F43/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2580,22 +2582,22 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2">
-        <f>C44+D44</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>28</v>
       </c>
       <c r="G44" s="3">
-        <f>C44/E44</f>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="H44" s="3">
-        <f>F44/$B$1</f>
-        <v>0.33734939759036142</v>
+        <f t="shared" si="5"/>
+        <v>0.32941176470588235</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <f>C45+D45</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" s="3">
-        <f>C45/E45</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f>F45/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -2629,18 +2631,18 @@
         <v>61</v>
       </c>
       <c r="E46" s="2">
-        <f>C46+D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="3" t="e">
-        <f>C46/E46</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="3">
-        <f>F46/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2655,19 +2657,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="2">
-        <f>C47+D47</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <f>C47/E47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <f>F47/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -2681,19 +2683,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="2">
-        <f>C48+D48</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48" s="3">
-        <f>C48/E48</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="H48" s="3">
-        <f>F48/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
@@ -2701,18 +2703,18 @@
         <v>63</v>
       </c>
       <c r="E49" s="2">
-        <f>C49+D49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="3" t="e">
-        <f>C49/E49</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="3">
-        <f>F49/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2727,19 +2729,19 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <f>C50+D50</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" s="3">
-        <f>C50/E50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <f>F50/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -2753,19 +2755,19 @@
         <v>2</v>
       </c>
       <c r="E51" s="2">
-        <f>C51+D51</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F51">
         <v>11</v>
       </c>
       <c r="G51" s="3">
-        <f>C51/E51</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="H51" s="3">
-        <f>F51/$B$1</f>
-        <v>0.13253012048192772</v>
+        <f t="shared" si="5"/>
+        <v>0.12941176470588237</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
@@ -2773,24 +2775,24 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <f>C52+D52</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f>C52/E52</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H52" s="3">
-        <f>F52/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2805,19 +2807,19 @@
         <v>11</v>
       </c>
       <c r="E53" s="2">
-        <f>C53+D53</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" s="3">
-        <f>C53/E53</f>
+        <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
       <c r="H53" s="3">
-        <f>F53/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
@@ -2831,19 +2833,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="2">
-        <f>C54+D54</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <f>C54/E54</f>
+        <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="H54" s="3">
-        <f>F54/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -2857,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <f>C55+D55</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" s="3">
-        <f>C55/E55</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H55" s="3">
-        <f>F55/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
@@ -2883,19 +2885,19 @@
         <v>2</v>
       </c>
       <c r="E56" s="2">
-        <f>C56+D56</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" s="3">
-        <f>C56/E56</f>
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" s="3">
-        <f>F56/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -2909,19 +2911,19 @@
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <f>C57+D57</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F57">
         <v>14</v>
       </c>
       <c r="G57" s="3">
-        <f>C57/E57</f>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="H57" s="3">
-        <f>F57/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="5"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2929,25 +2931,25 @@
         <v>299</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58" s="2">
-        <f>C58+D58</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" s="3">
-        <f>C58/E58</f>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
       </c>
       <c r="H58" s="3">
-        <f>F58/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="5"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2961,19 +2963,19 @@
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <f>C59+D59</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <f>C59/E59</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <f>F59/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
@@ -2987,19 +2989,19 @@
         <v>9</v>
       </c>
       <c r="E60" s="2">
-        <f>C60+D60</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" s="3">
-        <f>C60/E60</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="H60" s="3">
-        <f>F60/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
@@ -3007,18 +3009,18 @@
         <v>72</v>
       </c>
       <c r="E61" s="2">
-        <f>C61+D61</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="3" t="e">
-        <f>C61/E61</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="3">
-        <f>F61/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3030,22 +3032,22 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2">
-        <f>C62+D62</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <f>C62/E62</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="H62" s="3">
-        <f>F62/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
@@ -3053,18 +3055,18 @@
         <v>74</v>
       </c>
       <c r="E63" s="2">
-        <f>C63+D63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="3" t="e">
-        <f>C63/E63</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="3">
-        <f>F63/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3079,19 +3081,19 @@
         <v>2</v>
       </c>
       <c r="E64" s="2">
-        <f>C64+D64</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <f>C64/E64</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f>F64/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
@@ -3105,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="E65" s="2">
-        <f>C65+D65</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" s="3">
-        <f>C65/E65</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H65" s="3">
-        <f>F65/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
@@ -3131,18 +3133,18 @@
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <f>C66+D66</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <f>C66/E66</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H66" s="3">
-        <f>F66/$B$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3154,21 +3156,21 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2">
-        <f>C67+D67</f>
-        <v>1</v>
+        <f t="shared" ref="E67:E98" si="6">C67+D67</f>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <f>C67/E67</f>
+        <f t="shared" ref="G67:G98" si="7">C67/E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <f>F67/$B$1</f>
+        <f t="shared" ref="H67:H98" si="8">F67/$B$1</f>
         <v>0</v>
       </c>
     </row>
@@ -3183,19 +3185,19 @@
         <v>2</v>
       </c>
       <c r="E68" s="2">
-        <f>C68+D68</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F68">
         <v>6</v>
       </c>
       <c r="G68" s="3">
-        <f>C68/E68</f>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="H68" s="3">
-        <f>F68/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -3203,19 +3205,19 @@
         <v>79</v>
       </c>
       <c r="E69" s="2">
-        <f>C69+D69</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" s="3" t="e">
-        <f>C69/E69</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="3">
-        <f>F69/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
@@ -3223,18 +3225,18 @@
         <v>301</v>
       </c>
       <c r="E70" s="2">
-        <f>C70+D70</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="3" t="e">
-        <f>C70/E70</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="3">
-        <f>F70/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,18 +3251,18 @@
         <v>3</v>
       </c>
       <c r="E71" s="2">
-        <f>C71+D71</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <f>C71/E71</f>
+        <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="H71" s="3">
-        <f>F71/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3275,38 +3277,44 @@
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <f>C72+D72</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F72">
         <v>6</v>
       </c>
       <c r="G72" s="3">
-        <f>C72/E72</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H72" s="3">
-        <f>F72/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>303</v>
       </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
       <c r="E73" s="2">
-        <f>C73+D73</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="3" t="e">
-        <f>C73/E73</f>
-        <v>#DIV/0!</v>
+      <c r="G73" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
-        <f>F73/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3321,19 +3329,19 @@
         <v>2</v>
       </c>
       <c r="E74" s="2">
-        <f>C74+D74</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="3">
-        <f>C74/E74</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H74" s="3">
-        <f>F74/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -3347,19 +3355,19 @@
         <v>3</v>
       </c>
       <c r="E75" s="2">
-        <f>C75+D75</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F75">
         <v>14</v>
       </c>
       <c r="G75" s="3">
-        <f>C75/E75</f>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="H75" s="3">
-        <f>F75/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="8"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
@@ -3373,18 +3381,18 @@
         <v>1</v>
       </c>
       <c r="E76" s="2">
-        <f>C76+D76</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <f>C76/E76</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <f>F76/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,19 +3407,19 @@
         <v>3</v>
       </c>
       <c r="E77" s="2">
-        <f>C77+D77</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F77">
         <v>9</v>
       </c>
       <c r="G77" s="3">
-        <f>C77/E77</f>
+        <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
       <c r="H77" s="3">
-        <f>F77/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="8"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
@@ -3419,25 +3427,25 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>7</v>
       </c>
       <c r="E78" s="2">
-        <f>C78+D78</f>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>17</v>
       </c>
       <c r="G78" s="3">
-        <f>C78/E78</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="7"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H78" s="3">
-        <f>F78/$B$1</f>
-        <v>0.20481927710843373</v>
+        <f t="shared" si="8"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
@@ -3451,18 +3459,18 @@
         <v>0</v>
       </c>
       <c r="E79" s="2">
-        <f>C79+D79</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <f>C79/E79</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H79" s="3">
-        <f>F79/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3477,19 +3485,19 @@
         <v>2</v>
       </c>
       <c r="E80" s="2">
-        <f>C80+D80</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F80">
         <v>8</v>
       </c>
       <c r="G80" s="3">
-        <f>C80/E80</f>
+        <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" s="3">
-        <f>F80/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
@@ -3497,18 +3505,18 @@
         <v>86</v>
       </c>
       <c r="E81" s="2">
-        <f>C81+D81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" s="3" t="e">
-        <f>C81/E81</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="3">
-        <f>F81/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3523,19 +3531,19 @@
         <v>9</v>
       </c>
       <c r="E82" s="2">
-        <f>C82+D82</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" s="3">
-        <f>C82/E82</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H82" s="3">
-        <f>F82/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="8"/>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
@@ -3549,19 +3557,19 @@
         <v>2</v>
       </c>
       <c r="E83" s="2">
-        <f>C83+D83</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F83">
         <v>8</v>
       </c>
       <c r="G83" s="3">
-        <f>C83/E83</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H83" s="3">
-        <f>F83/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
@@ -3575,19 +3583,19 @@
         <v>7</v>
       </c>
       <c r="E84" s="2">
-        <f>C84+D84</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F84">
         <v>15</v>
       </c>
       <c r="G84" s="3">
-        <f>C84/E84</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="H84" s="3">
-        <f>F84/$B$1</f>
-        <v>0.18072289156626506</v>
+        <f t="shared" si="8"/>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
@@ -3601,19 +3609,19 @@
         <v>7</v>
       </c>
       <c r="E85" s="2">
-        <f>C85+D85</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F85">
         <v>14</v>
       </c>
       <c r="G85" s="3">
-        <f>C85/E85</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H85" s="3">
-        <f>F85/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="8"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
@@ -3627,18 +3635,18 @@
         <v>1</v>
       </c>
       <c r="E86" s="2">
-        <f>C86+D86</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <f>C86/E86</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H86" s="3">
-        <f>F86/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3653,19 +3661,19 @@
         <v>5</v>
       </c>
       <c r="E87" s="2">
-        <f>C87+D87</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F87">
         <v>22</v>
       </c>
       <c r="G87" s="3">
-        <f>C87/E87</f>
+        <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="H87" s="3">
-        <f>F87/$B$1</f>
-        <v>0.26506024096385544</v>
+        <f t="shared" si="8"/>
+        <v>0.25882352941176473</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
@@ -3679,19 +3687,19 @@
         <v>5</v>
       </c>
       <c r="E88" s="2">
-        <f>C88+D88</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="G88" s="3">
-        <f>C88/E88</f>
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="H88" s="3">
-        <f>F88/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -3699,19 +3707,19 @@
         <v>91</v>
       </c>
       <c r="E89" s="2">
-        <f>C89+D89</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="3" t="e">
-        <f>C89/E89</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="3">
-        <f>F89/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
@@ -3725,19 +3733,19 @@
         <v>2</v>
       </c>
       <c r="E90" s="2">
-        <f>C90+D90</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="G90" s="3">
-        <f>C90/E90</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H90" s="3">
-        <f>F90/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -3751,19 +3759,19 @@
         <v>3</v>
       </c>
       <c r="E91" s="2">
-        <f>C91+D91</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91" s="3">
-        <f>C91/E91</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="H91" s="3">
-        <f>F91/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
@@ -3777,19 +3785,19 @@
         <v>3</v>
       </c>
       <c r="E92" s="2">
-        <f>C92+D92</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
       <c r="G92" s="3">
-        <f>C92/E92</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="H92" s="3">
-        <f>F92/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
@@ -3800,22 +3808,22 @@
         <v>13</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" s="2">
-        <f>C93+D93</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="F93">
         <v>14</v>
       </c>
       <c r="G93" s="3">
-        <f>C93/E93</f>
-        <v>0.8125</v>
+        <f t="shared" si="7"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="H93" s="3">
-        <f>F93/$B$1</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" si="8"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -3829,19 +3837,19 @@
         <v>2</v>
       </c>
       <c r="E94" s="2">
-        <f>C94+D94</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <f>C94/E94</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H94" s="3">
-        <f>F94/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
@@ -3855,18 +3863,18 @@
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <f>C95+D95</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <f>C95/E95</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H95" s="3">
-        <f>F95/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3875,18 +3883,18 @@
         <v>96</v>
       </c>
       <c r="E96" s="2">
-        <f>C96+D96</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" s="3" t="e">
-        <f>C96/E96</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H96" s="3">
-        <f>F96/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3901,19 +3909,19 @@
         <v>3</v>
       </c>
       <c r="E97" s="2">
-        <f>C97+D97</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97" s="3">
-        <f>C97/E97</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H97" s="3">
-        <f>F97/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
@@ -3921,18 +3929,18 @@
         <v>306</v>
       </c>
       <c r="E98" s="2">
-        <f>C98+D98</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" s="3" t="e">
-        <f>C98/E98</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="3">
-        <f>F98/$B$1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3947,19 +3955,19 @@
         <v>4</v>
       </c>
       <c r="E99" s="2">
-        <f>C99+D99</f>
+        <f t="shared" ref="E99:E130" si="9">C99+D99</f>
         <v>9</v>
       </c>
       <c r="F99">
         <v>9</v>
       </c>
       <c r="G99" s="3">
-        <f>C99/E99</f>
+        <f t="shared" ref="G99:G130" si="10">C99/E99</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="H99" s="3">
-        <f>F99/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" ref="H99:H130" si="11">F99/$B$1</f>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
@@ -3973,19 +3981,19 @@
         <v>11</v>
       </c>
       <c r="E100" s="2">
-        <f>C100+D100</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F100">
         <v>17</v>
       </c>
       <c r="G100" s="3">
-        <f>C100/E100</f>
+        <f t="shared" si="10"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="H100" s="3">
-        <f>F100/$B$1</f>
-        <v>0.20481927710843373</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
@@ -3993,25 +4001,25 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>8</v>
       </c>
       <c r="E101" s="2">
-        <f>C101+D101</f>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>15</v>
       </c>
       <c r="G101" s="3">
-        <f>C101/E101</f>
-        <v>0.61904761904761907</v>
+        <f t="shared" si="10"/>
+        <v>0.63636363636363635</v>
       </c>
       <c r="H101" s="3">
-        <f>F101/$B$1</f>
-        <v>0.18072289156626506</v>
+        <f t="shared" si="11"/>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
@@ -4025,19 +4033,19 @@
         <v>5</v>
       </c>
       <c r="E102" s="2">
-        <f>C102+D102</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G102" s="3">
-        <f>C102/E102</f>
+        <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="H102" s="3">
-        <f>F102/$B$1</f>
-        <v>9.6385542168674704E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
@@ -4051,19 +4059,19 @@
         <v>5</v>
       </c>
       <c r="E103" s="2">
-        <f>C103+D103</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F103">
         <v>9</v>
       </c>
       <c r="G103" s="3">
-        <f>C103/E103</f>
+        <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H103" s="3">
-        <f>F103/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="11"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
@@ -4077,19 +4085,19 @@
         <v>2</v>
       </c>
       <c r="E104" s="2">
-        <f>C104+D104</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="G104" s="3">
-        <f>C104/E104</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H104" s="3">
-        <f>F104/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
@@ -4097,18 +4105,18 @@
         <v>103</v>
       </c>
       <c r="E105" s="2">
-        <f>C105+D105</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" s="3" t="e">
-        <f>C105/E105</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H105" s="3">
-        <f>F105/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4117,18 +4125,18 @@
         <v>104</v>
       </c>
       <c r="E106" s="2">
-        <f>C106+D106</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" s="3" t="e">
-        <f>C106/E106</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H106" s="3">
-        <f>F106/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4143,19 +4151,19 @@
         <v>9</v>
       </c>
       <c r="E107" s="2">
-        <f>C107+D107</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="F107">
         <v>5</v>
       </c>
       <c r="G107" s="3">
-        <f>C107/E107</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="H107" s="3">
-        <f>F107/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
@@ -4169,18 +4177,18 @@
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <f>C108+D108</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" s="3">
-        <f>C108/E108</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H108" s="3">
-        <f>F108/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,18 +4197,18 @@
         <v>307</v>
       </c>
       <c r="E109" s="2">
-        <f>C109+D109</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" s="3" t="e">
-        <f>C109/E109</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H109" s="3">
-        <f>F109/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4215,19 +4223,19 @@
         <v>6</v>
       </c>
       <c r="E110" s="2">
-        <f>C110+D110</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="F110">
         <v>13</v>
       </c>
       <c r="G110" s="3">
-        <f>C110/E110</f>
+        <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
       <c r="H110" s="3">
-        <f>F110/$B$1</f>
-        <v>0.15662650602409639</v>
+        <f t="shared" si="11"/>
+        <v>0.15294117647058825</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
@@ -4235,19 +4243,19 @@
         <v>308</v>
       </c>
       <c r="E111" s="2">
-        <f>C111+D111</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F111">
         <v>3</v>
       </c>
       <c r="G111" s="3" t="e">
-        <f>C111/E111</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H111" s="3">
-        <f>F111/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
@@ -4261,19 +4269,19 @@
         <v>2</v>
       </c>
       <c r="E112" s="2">
-        <f>C112+D112</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="G112" s="3">
-        <f>C112/E112</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="H112" s="3">
-        <f>F112/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
@@ -4281,18 +4289,18 @@
         <v>109</v>
       </c>
       <c r="E113" s="2">
-        <f>C113+D113</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" s="3" t="e">
-        <f>C113/E113</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H113" s="3">
-        <f>F113/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,18 +4309,18 @@
         <v>110</v>
       </c>
       <c r="E114" s="2">
-        <f>C114+D114</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" s="3" t="e">
-        <f>C114/E114</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="3">
-        <f>F114/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4321,18 +4329,18 @@
         <v>111</v>
       </c>
       <c r="E115" s="2">
-        <f>C115+D115</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" s="3" t="e">
-        <f>C115/E115</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H115" s="3">
-        <f>F115/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4347,19 +4355,19 @@
         <v>3</v>
       </c>
       <c r="E116" s="2">
-        <f>C116+D116</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G116" s="3">
-        <f>C116/E116</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H116" s="3">
-        <f>F116/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
@@ -4373,19 +4381,19 @@
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <f>C117+D117</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="G117" s="3">
-        <f>C117/E117</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H117" s="3">
-        <f>F117/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
@@ -4399,19 +4407,19 @@
         <v>9</v>
       </c>
       <c r="E118" s="2">
-        <f>C118+D118</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G118" s="3">
-        <f>C118/E118</f>
+        <f t="shared" si="10"/>
         <v>0.59090909090909094</v>
       </c>
       <c r="H118" s="3">
-        <f>F118/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
@@ -4425,19 +4433,19 @@
         <v>3</v>
       </c>
       <c r="E119" s="2">
-        <f>C119+D119</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
       <c r="G119" s="3">
-        <f>C119/E119</f>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="H119" s="3">
-        <f>F119/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
@@ -4445,19 +4453,19 @@
         <v>18</v>
       </c>
       <c r="E120" s="2">
-        <f>C120+D120</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" s="3" t="e">
-        <f>C120/E120</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H120" s="3">
-        <f>F120/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
@@ -4471,19 +4479,19 @@
         <v>3</v>
       </c>
       <c r="E121" s="2">
-        <f>C121+D121</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" s="3">
-        <f>C121/E121</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="H121" s="3">
-        <f>F121/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
@@ -4491,19 +4499,19 @@
         <v>116</v>
       </c>
       <c r="E122" s="2">
-        <f>C122+D122</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="e">
-        <f>C122/E122</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H122" s="3">
-        <f>F122/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
@@ -4514,22 +4522,22 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E123" s="2">
-        <f>C123+D123</f>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="F123">
         <v>10</v>
       </c>
       <c r="G123" s="3">
-        <f>C123/E123</f>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="10"/>
+        <v>0.6</v>
       </c>
       <c r="H123" s="3">
-        <f>F123/$B$1</f>
-        <v>0.12048192771084337</v>
+        <f t="shared" si="11"/>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
@@ -4537,18 +4545,18 @@
         <v>118</v>
       </c>
       <c r="E124" s="2">
-        <f>C124+D124</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124" s="3" t="e">
-        <f>C124/E124</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H124" s="3">
-        <f>F124/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4563,18 +4571,18 @@
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <f>C125+D125</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125" s="3">
-        <f>C125/E125</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H125" s="3">
-        <f>F125/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4583,24 +4591,24 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" s="2">
-        <f>C126+D126</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <f>C126/E126</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H126" s="3">
-        <f>F126/$B$1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4612,22 +4620,22 @@
         <v>5</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E127" s="2">
-        <f>C127+D127</f>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="F127">
         <v>4</v>
       </c>
       <c r="G127" s="3">
-        <f>C127/E127</f>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H127" s="3">
-        <f>F127/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
@@ -4641,19 +4649,19 @@
         <v>2</v>
       </c>
       <c r="E128" s="2">
-        <f>C128+D128</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F128">
         <v>6</v>
       </c>
       <c r="G128" s="3">
-        <f>C128/E128</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H128" s="3">
-        <f>F128/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
@@ -4667,19 +4675,19 @@
         <v>6</v>
       </c>
       <c r="E129" s="2">
-        <f>C129+D129</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="F129">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G129" s="3">
-        <f>C129/E129</f>
+        <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H129" s="3">
-        <f>F129/$B$1</f>
-        <v>0.44578313253012047</v>
+        <f t="shared" si="11"/>
+        <v>0.45882352941176469</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
@@ -4693,19 +4701,19 @@
         <v>1</v>
       </c>
       <c r="E130" s="2">
-        <f>C130+D130</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <f>C130/E130</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H130" s="3">
-        <f>F130/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
@@ -4719,19 +4727,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="2">
-        <f>C131+D131</f>
+        <f t="shared" ref="E131:E162" si="12">C131+D131</f>
         <v>4</v>
       </c>
       <c r="F131">
         <v>3</v>
       </c>
       <c r="G131" s="3">
-        <f>C131/E131</f>
+        <f t="shared" ref="G131:G162" si="13">C131/E131</f>
         <v>0.25</v>
       </c>
       <c r="H131" s="3">
-        <f>F131/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" ref="H131:H162" si="14">F131/$B$1</f>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
@@ -4745,19 +4753,19 @@
         <v>0</v>
       </c>
       <c r="E132" s="2">
-        <f>C132+D132</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F132">
         <v>2</v>
       </c>
       <c r="G132" s="3">
-        <f>C132/E132</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H132" s="3">
-        <f>F132/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
@@ -4771,19 +4779,19 @@
         <v>5</v>
       </c>
       <c r="E133" s="2">
-        <f>C133+D133</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="F133">
         <v>13</v>
       </c>
       <c r="G133" s="3">
-        <f>C133/E133</f>
+        <f t="shared" si="13"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="H133" s="3">
-        <f>F133/$B$1</f>
-        <v>0.15662650602409639</v>
+        <f t="shared" si="14"/>
+        <v>0.15294117647058825</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
@@ -4797,19 +4805,19 @@
         <v>10</v>
       </c>
       <c r="E134" s="2">
-        <f>C134+D134</f>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="F134">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G134" s="3">
-        <f>C134/E134</f>
+        <f t="shared" si="13"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="H134" s="3">
-        <f>F134/$B$1</f>
-        <v>0.3253012048192771</v>
+        <f t="shared" si="14"/>
+        <v>0.32941176470588235</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
@@ -4823,19 +4831,19 @@
         <v>2</v>
       </c>
       <c r="E135" s="2">
-        <f>C135+D135</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F135">
         <v>6</v>
       </c>
       <c r="G135" s="3">
-        <f>C135/E135</f>
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
       <c r="H135" s="3">
-        <f>F135/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
@@ -4849,19 +4857,19 @@
         <v>3</v>
       </c>
       <c r="E136" s="2">
-        <f>C136+D136</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="F136">
         <v>12</v>
       </c>
       <c r="G136" s="3">
-        <f>C136/E136</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="H136" s="3">
-        <f>F136/$B$1</f>
-        <v>0.14457831325301204</v>
+        <f t="shared" si="14"/>
+        <v>0.14117647058823529</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
@@ -4869,19 +4877,19 @@
         <v>129</v>
       </c>
       <c r="E137" s="2">
-        <f>C137+D137</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="3" t="e">
-        <f>C137/E137</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H137" s="3">
-        <f>F137/$B$1</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
@@ -4895,19 +4903,19 @@
         <v>1</v>
       </c>
       <c r="E138" s="2">
-        <f>C138+D138</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" s="3">
-        <f>C138/E138</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H138" s="3">
-        <f>F138/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
@@ -4921,18 +4929,18 @@
         <v>0</v>
       </c>
       <c r="E139" s="2">
-        <f>C139+D139</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139" s="3">
-        <f>C139/E139</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H139" s="3">
-        <f>F139/$B$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4947,19 +4955,19 @@
         <v>1</v>
       </c>
       <c r="E140" s="2">
-        <f>C140+D140</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F140">
         <v>7</v>
       </c>
       <c r="G140" s="3">
-        <f>C140/E140</f>
+        <f t="shared" si="13"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="H140" s="3">
-        <f>F140/$B$1</f>
-        <v>8.4337349397590355E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.2352941176470587E-2</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
@@ -4973,19 +4981,19 @@
         <v>6</v>
       </c>
       <c r="E141" s="2">
-        <f>C141+D141</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="F141">
         <v>2</v>
       </c>
       <c r="G141" s="3">
-        <f>C141/E141</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H141" s="3">
-        <f>F141/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
@@ -4999,19 +5007,19 @@
         <v>2</v>
       </c>
       <c r="E142" s="2">
-        <f>C142+D142</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="F142">
         <v>4</v>
       </c>
       <c r="G142" s="3">
-        <f>C142/E142</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="H142" s="3">
-        <f>F142/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
@@ -5019,18 +5027,18 @@
         <v>135</v>
       </c>
       <c r="E143" s="2">
-        <f>C143+D143</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143" s="3" t="e">
-        <f>C143/E143</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H143" s="3">
-        <f>F143/$B$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5039,19 +5047,19 @@
         <v>310</v>
       </c>
       <c r="E144" s="2">
-        <f>C144+D144</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F144">
         <v>6</v>
       </c>
       <c r="G144" s="3" t="e">
-        <f>C144/E144</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H144" s="3">
-        <f>F144/$B$1</f>
-        <v>7.2289156626506021E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0588235294117646E-2</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
@@ -5065,19 +5073,19 @@
         <v>4</v>
       </c>
       <c r="E145" s="2">
-        <f>C145+D145</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="F145">
         <v>9</v>
       </c>
       <c r="G145" s="3">
-        <f>C145/E145</f>
+        <f t="shared" si="13"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H145" s="3">
-        <f>F145/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="14"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
@@ -5091,19 +5099,19 @@
         <v>1</v>
       </c>
       <c r="E146" s="2">
-        <f>C146+D146</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="3">
-        <f>C146/E146</f>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H146" s="3">
-        <f>F146/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
@@ -5117,18 +5125,18 @@
         <v>2</v>
       </c>
       <c r="E147" s="2">
-        <f>C147+D147</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147" s="3">
-        <f>C147/E147</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H147" s="3">
-        <f>F147/$B$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5143,19 +5151,19 @@
         <v>4</v>
       </c>
       <c r="E148" s="2">
-        <f>C148+D148</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
       <c r="G148" s="3">
-        <f>C148/E148</f>
+        <f t="shared" si="13"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="H148" s="3">
-        <f>F148/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
@@ -5169,18 +5177,18 @@
         <v>2</v>
       </c>
       <c r="E149" s="2">
-        <f>C149+D149</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" s="3">
-        <f>C149/E149</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H149" s="3">
-        <f>F149/$B$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5189,19 +5197,19 @@
         <v>139</v>
       </c>
       <c r="E150" s="2">
-        <f>C150+D150</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F150">
         <v>2</v>
       </c>
       <c r="G150" s="3" t="e">
-        <f>C150/E150</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="3">
-        <f>F150/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
@@ -5215,19 +5223,19 @@
         <v>0</v>
       </c>
       <c r="E151" s="2">
-        <f>C151+D151</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151" s="3">
-        <f>C151/E151</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H151" s="3">
-        <f>F151/$B$1</f>
-        <v>1.2048192771084338E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
@@ -5241,19 +5249,19 @@
         <v>1</v>
       </c>
       <c r="E152" s="2">
-        <f>C152+D152</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F152">
         <v>3</v>
       </c>
       <c r="G152" s="3">
-        <f>C152/E152</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="H152" s="3">
-        <f>F152/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
@@ -5267,19 +5275,19 @@
         <v>6</v>
       </c>
       <c r="E153" s="2">
-        <f>C153+D153</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G153" s="3">
-        <f>C153/E153</f>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="H153" s="3">
-        <f>F153/$B$1</f>
-        <v>8.4337349397590355E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
@@ -5287,25 +5295,25 @@
         <v>142</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" s="2">
-        <f>C154+D154</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="F154">
         <v>9</v>
       </c>
       <c r="G154" s="3">
-        <f>C154/E154</f>
-        <v>0.8</v>
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H154" s="3">
-        <f>F154/$B$1</f>
-        <v>0.10843373493975904</v>
+        <f t="shared" si="14"/>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
@@ -5319,19 +5327,19 @@
         <v>4</v>
       </c>
       <c r="E155" s="2">
-        <f>C155+D155</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="F155">
         <v>7</v>
       </c>
       <c r="G155" s="3">
-        <f>C155/E155</f>
+        <f t="shared" si="13"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="H155" s="3">
-        <f>F155/$B$1</f>
-        <v>8.4337349397590355E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.2352941176470587E-2</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
@@ -5339,25 +5347,25 @@
         <v>20</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D156">
         <v>3</v>
       </c>
       <c r="E156" s="2">
-        <f>C156+D156</f>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="F156">
         <v>27</v>
       </c>
       <c r="G156" s="3">
-        <f>C156/E156</f>
-        <v>0.625</v>
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H156" s="3">
-        <f>F156/$B$1</f>
-        <v>0.3253012048192771</v>
+        <f t="shared" si="14"/>
+        <v>0.31764705882352939</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
@@ -5368,22 +5376,22 @@
         <v>3</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" s="2">
-        <f>C157+D157</f>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="F157">
         <v>2</v>
       </c>
       <c r="G157" s="3">
-        <f>C157/E157</f>
-        <v>0.5</v>
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H157" s="3">
-        <f>F157/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
@@ -5391,18 +5399,18 @@
         <v>145</v>
       </c>
       <c r="E158" s="2">
-        <f>C158+D158</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" s="3" t="e">
-        <f>C158/E158</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H158" s="3">
-        <f>F158/$B$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5417,19 +5425,19 @@
         <v>5</v>
       </c>
       <c r="E159" s="2">
-        <f>C159+D159</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="F159">
         <v>5</v>
       </c>
       <c r="G159" s="3">
-        <f>C159/E159</f>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="H159" s="3">
-        <f>F159/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
@@ -5437,19 +5445,19 @@
         <v>8</v>
       </c>
       <c r="E160" s="2">
-        <f>C160+D160</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F160">
         <v>2</v>
       </c>
       <c r="G160" s="3" t="e">
-        <f>C160/E160</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H160" s="3">
-        <f>F160/$B$1</f>
-        <v>2.4096385542168676E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3529411764705882E-2</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
@@ -5463,19 +5471,19 @@
         <v>10</v>
       </c>
       <c r="E161" s="2">
-        <f>C161+D161</f>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="F161">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G161" s="3">
-        <f>C161/E161</f>
+        <f t="shared" si="13"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="H161" s="3">
-        <f>F161/$B$1</f>
-        <v>0.31325301204819278</v>
+        <f t="shared" si="14"/>
+        <v>0.31764705882352939</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
@@ -5489,19 +5497,19 @@
         <v>1</v>
       </c>
       <c r="E162" s="2">
-        <f>C162+D162</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="G162" s="3">
-        <f>C162/E162</f>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H162" s="3">
-        <f>F162/$B$1</f>
-        <v>6.0240963855421686E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
@@ -5515,19 +5523,19 @@
         <v>5</v>
       </c>
       <c r="E163" s="2">
-        <f>C163+D163</f>
+        <f t="shared" ref="E163:E194" si="15">C163+D163</f>
         <v>8</v>
       </c>
       <c r="F163">
         <v>18</v>
       </c>
       <c r="G163" s="3">
-        <f>C163/E163</f>
+        <f t="shared" ref="G163:G172" si="16">C163/E163</f>
         <v>0.375</v>
       </c>
       <c r="H163" s="3">
-        <f>F163/$B$1</f>
-        <v>0.21686746987951808</v>
+        <f t="shared" ref="H163:H172" si="17">F163/$B$1</f>
+        <v>0.21176470588235294</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
@@ -5541,19 +5549,19 @@
         <v>3</v>
       </c>
       <c r="E164" s="2">
-        <f>C164+D164</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G164" s="3">
-        <f>C164/E164</f>
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H164" s="3">
-        <f>F164/$B$1</f>
-        <v>0.14457831325301204</v>
+        <f t="shared" si="17"/>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
@@ -5567,19 +5575,19 @@
         <v>3</v>
       </c>
       <c r="E165" s="2">
-        <f>C165+D165</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F165">
         <v>10</v>
       </c>
       <c r="G165" s="3">
-        <f>C165/E165</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H165" s="3">
-        <f>F165/$B$1</f>
-        <v>0.12048192771084337</v>
+        <f t="shared" si="17"/>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
@@ -5593,19 +5601,19 @@
         <v>3</v>
       </c>
       <c r="E166" s="2">
-        <f>C166+D166</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="G166" s="3">
-        <f>C166/E166</f>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
       <c r="H166" s="3">
-        <f>F166/$B$1</f>
-        <v>4.8192771084337352E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
@@ -5619,19 +5627,19 @@
         <v>1</v>
       </c>
       <c r="E167" s="2">
-        <f>C167+D167</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="3">
-        <f>C167/E167</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H167" s="3">
-        <f>F167/$B$1</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.3">
@@ -5639,25 +5647,25 @@
         <v>152</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" s="2">
-        <f>C168+D168</f>
-        <v>8</v>
+        <f t="shared" si="15"/>
+        <v>9</v>
       </c>
       <c r="F168">
         <v>3</v>
       </c>
       <c r="G168" s="3">
-        <f>C168/E168</f>
-        <v>0.5</v>
+        <f t="shared" si="16"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="H168" s="3">
-        <f>F168/$B$1</f>
-        <v>3.614457831325301E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
@@ -5671,18 +5679,18 @@
         <v>1</v>
       </c>
       <c r="E169" s="2">
-        <f>C169+D169</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169" s="3">
-        <f>C169/E169</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H169" s="3">
-        <f>F169/$B$1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5691,18 +5699,18 @@
         <v>154</v>
       </c>
       <c r="E170" s="2">
-        <f>C170+D170</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170" s="3" t="e">
-        <f>C170/E170</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H170" s="3">
-        <f>F170/$B$1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5717,19 +5725,19 @@
         <v>1</v>
       </c>
       <c r="E171" s="2">
-        <f>C171+D171</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="F171">
         <v>11</v>
       </c>
       <c r="G171" s="3">
-        <f>C171/E171</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="H171" s="3">
-        <f>F171/$B$1</f>
-        <v>0.13253012048192772</v>
+        <f t="shared" si="17"/>
+        <v>0.12941176470588237</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.3">
@@ -5743,19 +5751,19 @@
         <v>2</v>
       </c>
       <c r="E172" s="2">
-        <f>C172+D172</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="F172">
         <v>12</v>
       </c>
       <c r="G172" s="3">
-        <f>C172/E172</f>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="H172" s="3">
-        <f>F172/$B$1</f>
-        <v>0.14457831325301204</v>
+        <f t="shared" si="17"/>
+        <v>0.14117647058823529</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.3">
@@ -5789,10 +5797,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CA500A-66CB-48A4-9E8B-060AD8855A9C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5832,358 +5841,343 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>198</v>
+        <v>85</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
         <f>(C3+E3)/D3</f>
-        <v>7.333333333333333</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>199</v>
+        <v>97</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6">
         <f>(C4+E4)/D4</f>
-        <v>6.6842105263157894</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="J4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>200</v>
+        <v>96</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6">
         <f>(C5+E5)/D5</f>
-        <v>7.5625</v>
+        <v>7.25</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>201</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F6" s="6">
         <f>(C6+E6)/D6</f>
-        <v>5.7777777777777777</v>
+        <v>6.1034482758620694</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>197</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6">
         <f>(C7+E7)/D7</f>
-        <v>7.9375</v>
+        <v>6.08</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>228</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6">
         <f>(C8+E8)/D8</f>
-        <v>2.7333333333333334</v>
+        <v>5.76</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9">
-        <v>62</v>
-      </c>
       <c r="D9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F9" s="6">
         <f>(C9+E9)/D9</f>
-        <v>6.08</v>
+        <v>5.5142857142857142</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>230</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F10" s="6">
         <f>(C10+E10)/D10</f>
-        <v>2.8095238095238093</v>
+        <v>5.28</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>231</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6">
         <f>(C11+E11)/D11</f>
-        <v>2.7391304347826089</v>
+        <v>5</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>95</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12">
+      <c r="E12">
         <v>17</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>148</v>
       </c>
       <c r="F12" s="6">
         <f>(C12+E12)/D12</f>
-        <v>4.7142857142857144</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6">
         <f>(C13+E13)/D13</f>
-        <v>2.59375</v>
+        <v>4.875</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -6192,160 +6186,157 @@
         <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>192</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F14" s="6">
         <f>(C14+E14)/D14</f>
-        <v>3.26</v>
+        <v>4.870967741935484</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="F15" s="6">
         <f>(C15+E15)/D15</f>
-        <v>4.0869565217391308</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>92</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16">
-        <v>77</v>
-      </c>
       <c r="D16">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F16" s="6">
         <f>(C16+E16)/D16</f>
-        <v>3.5957446808510638</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>196</v>
+        <v>74</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F17" s="6">
         <f>(C17+E17)/D17</f>
-        <v>3.5490196078431371</v>
+        <v>4.5185185185185182</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>207</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6">
         <f>(C18+E18)/D18</f>
-        <v>2.4444444444444446</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -6354,175 +6345,175 @@
         <v>1</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J18" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>208</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F19" s="6">
         <f>(C19+E19)/D19</f>
-        <v>3.5609756097560976</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J19" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>209</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6">
         <f>(C20+E20)/D20</f>
-        <v>5.3461538461538458</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J20" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>210</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F21" s="6">
         <f>(C21+E21)/D21</f>
-        <v>2.6428571428571428</v>
+        <v>4.3</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>211</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6">
         <f>(C22+E22)/D22</f>
-        <v>5</v>
+        <v>4.0869565217391308</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>245</v>
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F23" s="6">
         <f>(C23+E23)/D23</f>
-        <v>2.7878787878787881</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J23" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -6560,296 +6551,290 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>247</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="F25" s="6">
         <f>(C25+E25)/D25</f>
-        <v>3.1818181818181817</v>
+        <v>4</v>
       </c>
       <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
         <v>13</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26">
-        <v>61</v>
-      </c>
-      <c r="D26">
-        <v>43</v>
-      </c>
       <c r="E26">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6">
         <f>(C26+E26)/D26</f>
-        <v>3.3023255813953489</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>249</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="F27" s="6">
         <f>(C27+E27)/D27</f>
-        <v>2.6595744680851063</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J27" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>236</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F28" s="6">
         <f>(C28+E28)/D28</f>
-        <v>2.0196078431372548</v>
+        <v>3.935483870967742</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>73</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
         <v>27</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>56</v>
-      </c>
       <c r="E29">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29" s="6">
         <f>(C29+E29)/D29</f>
-        <v>2.5714285714285716</v>
+        <v>3.925925925925926</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>238</v>
+        <v>71</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F30" s="6">
         <f>(C30+E30)/D30</f>
-        <v>2.3333333333333335</v>
+        <v>3.9090909090909092</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>235</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="C31">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="F31" s="6">
         <f>(C31+E31)/D31</f>
-        <v>3.7105263157894739</v>
+        <v>3.8775510204081631</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>239</v>
+        <v>17</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F32" s="6">
         <f>(C32+E32)/D32</f>
-        <v>3.5588235294117645</v>
+        <v>3.8723404255319149</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>178</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>447</v>
       </c>
       <c r="C33">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6">
         <f>(C33+E33)/D33</f>
-        <v>3.4358974358974357</v>
+        <v>3.7804878048780486</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
         <v>271</v>
@@ -6857,650 +6842,644 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>179</v>
+        <v>63</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="F34" s="6">
         <f>(C34+E34)/D34</f>
-        <v>4.0750000000000002</v>
+        <v>3.774193548387097</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>180</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" s="6">
         <f>(C35+E35)/D35</f>
-        <v>3.5217391304347827</v>
+        <v>3.7674418604651163</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
-        <v>447</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C36">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="F36" s="6">
         <f>(C36+E36)/D36</f>
-        <v>3.7804878048780486</v>
+        <v>3.75</v>
       </c>
       <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>86</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37">
         <v>12</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
       <c r="D37">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="F37" s="6">
         <f>(C37+E37)/D37</f>
-        <v>4.870967741935484</v>
+        <v>3.75</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J37" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>174</v>
+        <v>29</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E38">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F38" s="6">
         <f>(C38+E38)/D38</f>
-        <v>1.3404255319148937</v>
+        <v>3.7105263157894739</v>
       </c>
       <c r="G38">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F39" s="6">
         <f>(C39+E39)/D39</f>
-        <v>3.75</v>
+        <v>3.6857142857142855</v>
       </c>
       <c r="G39">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>175</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="C40">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F40" s="6">
         <f>(C40+E40)/D40</f>
-        <v>3.1587301587301586</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>176</v>
+        <v>14</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E41">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F41" s="6">
         <f>(C41+E41)/D41</f>
-        <v>4.3666666666666663</v>
+        <v>3.5957446808510638</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>267</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>239</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E42">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="F42" s="6">
         <f>(C42+E42)/D42</f>
-        <v>3.0263157894736841</v>
+        <v>3.5588235294117645</v>
       </c>
       <c r="G42">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" s="23" t="s">
         <v>268</v>
       </c>
       <c r="J42" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>203</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E43">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F43" s="6">
         <f>(C43+E43)/D43</f>
-        <v>2.3035714285714284</v>
+        <v>3.5490196078431371</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>204</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E44">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F44" s="6">
         <f>(C44+E44)/D44</f>
-        <v>1.9692307692307693</v>
+        <v>3.5217391304347827</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>205</v>
+        <v>31</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C45">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F45" s="6">
         <f>(C45+E45)/D45</f>
-        <v>3.2549019607843137</v>
+        <v>3.4358974358974357</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J45" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>206</v>
+        <v>69</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="C46">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F46" s="6">
         <f>(C46+E46)/D46</f>
-        <v>3.1206896551724137</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>267</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>202</v>
+        <v>100</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6">
         <f>(C47+E47)/D47</f>
-        <v>3.8775510204081631</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J47" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>240</v>
+        <v>24</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F48" s="6">
         <f>(C48+E48)/D48</f>
-        <v>3.193548387096774</v>
+        <v>3.3023255813953489</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>241</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E49">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F49" s="6">
         <f>(C49+E49)/D49</f>
-        <v>3.6111111111111112</v>
+        <v>3.26</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="23" t="s">
         <v>265</v>
       </c>
       <c r="J49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>242</v>
+        <v>43</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F50" s="6">
         <f>(C50+E50)/D50</f>
-        <v>2.5510204081632653</v>
+        <v>3.2549019607843137</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>266</v>
       </c>
       <c r="J50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>243</v>
+        <v>59</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D51">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F51" s="6">
         <f>(C51+E51)/D51</f>
-        <v>3.935483870967742</v>
+        <v>3.25</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" s="23" t="s">
         <v>267</v>
       </c>
       <c r="J51" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>244</v>
+        <v>64</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E52">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F52" s="6">
         <f>(C52+E52)/D52</f>
-        <v>4</v>
+        <v>3.2439024390243905</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J52" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>232</v>
+        <v>58</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F53" s="6">
         <f>(C53+E53)/D53</f>
-        <v>1.6944444444444444</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -7509,67 +7488,67 @@
         <v>0</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J53" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>233</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="C54">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F54" s="6">
         <f>(C54+E54)/D54</f>
-        <v>2.7142857142857144</v>
+        <v>3.193548387096774</v>
       </c>
       <c r="G54">
         <v>9</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55">
-        <v>37</v>
-      </c>
       <c r="D55">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E55">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F55" s="6">
         <f>(C55+E55)/D55</f>
-        <v>2.1142857142857143</v>
+        <v>3.1818181818181817</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -7578,136 +7557,133 @@
         <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>234</v>
+        <v>82</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F56" s="6">
         <f>(C56+E56)/D56</f>
-        <v>2.0789473684210527</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>252</v>
+        <v>38</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E57">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F57" s="6">
         <f>(C57+E57)/D57</f>
-        <v>4.3</v>
+        <v>3.1587301587301586</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>213</v>
+        <v>44</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F58" s="6">
         <f>(C58+E58)/D58</f>
-        <v>2.8857142857142857</v>
+        <v>3.1206896551724137</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J58" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E59">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F59" s="6">
         <f>(C59+E59)/D59</f>
-        <v>1.8771929824561404</v>
+        <v>3.0930232558139537</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J59" t="s">
         <v>284</v>
@@ -7715,320 +7691,317 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>215</v>
+        <v>65</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="F60" s="6">
         <f>(C60+E60)/D60</f>
-        <v>3.2142857142857144</v>
+        <v>3.04</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>216</v>
+        <v>40</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E61">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="F61" s="6">
         <f>(C61+E61)/D61</f>
-        <v>3.25</v>
+        <v>3.0263157894736841</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J61" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>212</v>
+        <v>19</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D62">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F62" s="6">
         <f>(C62+E62)/D62</f>
-        <v>3.0930232558139537</v>
+        <v>2.9347826086956523</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>223</v>
+        <v>75</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F63" s="6">
         <f>(C63+E63)/D63</f>
-        <v>1.7560975609756098</v>
+        <v>2.911111111111111</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>225</v>
+        <v>56</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D64">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E64">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F64" s="6">
         <f>(C64+E64)/D64</f>
-        <v>3.7674418604651163</v>
+        <v>2.8857142857142857</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J64" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>253</v>
+        <v>93</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F65" s="6">
         <f>(C65+E65)/D65</f>
-        <v>3.774193548387097</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J65" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>222</v>
+        <v>8</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F66" s="6">
         <f>(C66+E66)/D66</f>
-        <v>3.2439024390243905</v>
+        <v>2.8095238095238093</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>226</v>
+        <v>21</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D67">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E67">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="F67" s="6">
         <f>(C67+E67)/D67</f>
-        <v>3.04</v>
+        <v>2.7878787878787881</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>188</v>
+        <v>16</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="C68">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E68">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F68" s="6">
         <f>(C68+E68)/D68</f>
-        <v>2.0750000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="23" t="s">
         <v>264</v>
       </c>
       <c r="J68" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>189</v>
+        <v>9</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F69" s="6">
         <f>(C69+E69)/D69</f>
-        <v>2.4666666666666668</v>
+        <v>2.7391304347826089</v>
       </c>
       <c r="G69">
         <v>9</v>
@@ -8037,31 +8010,31 @@
         <v>0</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J69" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>190</v>
+        <v>6</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E70">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F70" s="6">
         <f>(C70+E70)/D70</f>
-        <v>2.0444444444444443</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="G70">
         <v>9</v>
@@ -8070,67 +8043,67 @@
         <v>0</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J70" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>191</v>
+        <v>52</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E71">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F71" s="6">
         <f>(C71+E71)/D71</f>
-        <v>3.3846153846153846</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="G71">
         <v>9</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J71" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>187</v>
+        <v>25</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F72" s="6">
         <f>(C72+E72)/D72</f>
-        <v>1.9795918367346939</v>
+        <v>2.6595744680851063</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8139,481 +8112,484 @@
         <v>268</v>
       </c>
       <c r="J72" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>259</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E73">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F73" s="6">
         <f>(C73+E73)/D73</f>
-        <v>3.9090909090909092</v>
+        <v>2.59375</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="23" t="s">
         <v>264</v>
       </c>
       <c r="J73" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>219</v>
+        <v>27</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>237</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D74">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E74">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F74" s="6">
         <f>(C74+E74)/D74</f>
-        <v>3.6857142857142855</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="23" t="s">
         <v>265</v>
       </c>
       <c r="J74" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>220</v>
+        <v>98</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="C75">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F75" s="6">
         <f>(C75+E75)/D75</f>
-        <v>3.925925925925926</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J75" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>217</v>
+        <v>48</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="C76">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E76">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F76" s="6">
         <f>(C76+E76)/D76</f>
-        <v>4.5185185185185182</v>
+        <v>2.5510204081632653</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="F77" s="6">
         <f>(C77+E77)/D77</f>
-        <v>2.911111111111111</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J77" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>183</v>
+        <v>67</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F78" s="6">
         <f>(C78+E78)/D78</f>
-        <v>0.78260869565217395</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
+        <v>28</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79">
+        <v>42</v>
+      </c>
+      <c r="D79">
+        <v>51</v>
+      </c>
+      <c r="E79">
         <v>77</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79">
-        <v>30</v>
-      </c>
-      <c r="D79">
-        <v>56</v>
-      </c>
-      <c r="E79">
-        <v>34</v>
       </c>
       <c r="F79" s="6">
         <f>(C79+E79)/D79</f>
-        <v>1.1428571428571428</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J79" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>184</v>
+        <v>41</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D80">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E80">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F80" s="6">
         <f>(C80+E80)/D80</f>
-        <v>1.441860465116279</v>
+        <v>2.3035714285714284</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J80" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D81">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E81">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F81" s="6">
         <f>(C81+E81)/D81</f>
-        <v>1.075</v>
+        <v>2.1142857142857143</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>186</v>
+        <v>91</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F82" s="6">
         <f>(C82+E82)/D82</f>
-        <v>1.3043478260869565</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="J82" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>254</v>
+        <v>54</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F83" s="6">
         <f>(C83+E83)/D83</f>
-        <v>2</v>
+        <v>2.0789473684210527</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="J83" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>256</v>
+        <v>66</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E84">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F84" s="6">
         <f>(C84+E84)/D84</f>
-        <v>3.1666666666666665</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="J84" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>255</v>
+        <v>68</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F85" s="6">
         <f>(C85+E85)/D85</f>
-        <v>5</v>
+        <v>2.0444444444444443</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="J85" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>224</v>
+        <v>26</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E86">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F86" s="6">
         <f>(C86+E86)/D86</f>
-        <v>2.5454545454545454</v>
+        <v>2.0196078431372548</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="J86" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>257</v>
+        <v>81</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
         <v>4</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>14</v>
       </c>
       <c r="F87" s="6">
         <f>(C87+E87)/D87</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8622,28 +8598,28 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>258</v>
+        <v>99</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F88" s="6">
         <f>(C88+E88)/D88</f>
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8654,119 +8630,128 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>218</v>
+        <v>70</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E89">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F89" s="6">
         <f>(C89+E89)/D89</f>
-        <v>1.7619047619047619</v>
+        <v>1.9795918367346939</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>263</v>
+        <v>268</v>
+      </c>
+      <c r="J89" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>181</v>
+        <v>42</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F90" s="6">
         <f>(C90+E90)/D90</f>
-        <v>0.76923076923076927</v>
+        <v>1.9692307692307693</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="J90" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>261</v>
+        <v>57</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F91" s="6">
         <f>(C91+E91)/D91</f>
-        <v>1.5714285714285714</v>
+        <v>1.8771929824561404</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="J91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>286</v>
+        <v>87</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E92">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F92" s="6">
         <f>(C92+E92)/D92</f>
+        <v>1.7619047619047619</v>
+      </c>
+      <c r="G92">
         <v>4</v>
       </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="23" t="s">
         <v>263</v>
@@ -8774,86 +8759,92 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>288</v>
+        <v>61</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>223</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F93" s="6">
         <f>(C93+E93)/D93</f>
-        <v>2.1111111111111112</v>
+        <v>1.7560975609756098</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="J93" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>287</v>
+        <v>51</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F94" s="6">
         <f>(C94+E94)/D94</f>
-        <v>4.666666666666667</v>
+        <v>1.6944444444444444</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="J94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>289</v>
+        <v>89</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F95" s="6">
         <f>(C95+E95)/D95</f>
-        <v>2.8181818181818183</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8864,218 +8855,241 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>197</v>
+        <v>78</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F96" s="6">
         <f>(C96+E96)/D96</f>
-        <v>4</v>
+        <v>1.441860465116279</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="J96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="C97">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E97">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F97" s="6">
         <f>(C97+E97)/D97</f>
+        <v>1.3404255319148937</v>
+      </c>
+      <c r="G97">
+        <v>17</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="J97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>80</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98">
         <v>5</v>
       </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C98">
-        <v>14</v>
-      </c>
       <c r="D98">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E98">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F98" s="6">
         <f>(C98+E98)/D98</f>
-        <v>7.25</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="J98" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>181</v>
+        <v>77</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F99" s="6">
         <f>(C99+E99)/D99</f>
-        <v>11</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="J99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>292</v>
+        <v>79</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F100" s="6">
         <f>(C100+E100)/D100</f>
-        <v>2.5555555555555554</v>
+        <v>1.075</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="J100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>314</v>
+        <v>76</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E101">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F101" s="6">
         <f>(C101+E101)/D101</f>
-        <v>2</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="J101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>315</v>
+        <v>88</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C102">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F102" s="6">
         <f>(C102+E102)/D102</f>
-        <v>3.3333333333333335</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="23" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J100" xr:uid="{34CA500A-66CB-48A4-9E8B-060AD8855A9C}">
+  <autoFilter ref="A2:J102" xr:uid="{34CA500A-66CB-48A4-9E8B-060AD8855A9C}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J102">
-      <sortCondition ref="A2:A100"/>
+      <sortCondition descending="1" ref="F2:F100"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9087,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA451F-BFA1-46F3-9C58-42502C59353A}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9115,11 +9129,11 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E8" si="0">C3/D3</f>
-        <v>0.24096385542168675</v>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -9130,11 +9144,11 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>0.18072289156626506</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -9145,11 +9159,11 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16867469879518071</v>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -9160,11 +9174,11 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>0.14457831325301204</v>
+        <v>0.14117647058823529</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -9172,14 +9186,14 @@
         <v>170</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>0.13253012048192772</v>
+        <v>0.15294117647058825</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -9190,11 +9204,11 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>0.13253012048192772</v>
+        <v>0.12941176470588237</v>
       </c>
     </row>
   </sheetData>
